--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,6 +1044,23 @@
         <v>0.3232392893758762</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39">
+        <v>0.2298740481777584</v>
+      </c>
+      <c r="D39">
+        <v>2026</v>
+      </c>
+      <c r="E39">
+        <v>-0.05255865067609333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_winter.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.415270364437228</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>4.649376756749724</v>
+        <v>4.320516327661528</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.962087242874768</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>3.526732593284598</v>
+        <v>3.433494243648449</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.572174200363311</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>8.295742638086345</v>
+        <v>7.855477094481422</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>5.729217279336951</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D5">
         <v>1992</v>
       </c>
       <c r="E5">
-        <v>-1.957387873818017</v>
+        <v>-0.7259153295281151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>1.836428721507843</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>-0.5751622720924665</v>
+        <v>-0.17790865651377</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-0.9741487148503647</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>2.904903724339492</v>
+        <v>2.233697987812078</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.97335726296355</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>2.665429053088753</v>
+        <v>2.959667200710037</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1995</v>
       </c>
       <c r="C9">
-        <v>2.096556826160434</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D9">
         <v>1996</v>
       </c>
       <c r="E9">
-        <v>0.2149543735169068</v>
+        <v>0.5406927319912658</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.51235317422882</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>3.44109123085532</v>
+        <v>3.29487077883559</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.470213055804171</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D11">
         <v>1998</v>
       </c>
       <c r="E11">
-        <v>3.223512181517285</v>
+        <v>3.15890982365572</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1998</v>
       </c>
       <c r="C12">
-        <v>2.919806032987537</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>3.31066493191241</v>
+        <v>3.239674285955152</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1999</v>
       </c>
       <c r="C13">
-        <v>1.265707943805627</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>2.749040749286213</v>
+        <v>2.571626871154176</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>3.20246120238703</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D14">
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.423157907697848</v>
+        <v>2.652928973511215</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.7373694169584333</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D15">
         <v>2002</v>
       </c>
       <c r="E15">
-        <v>-0.5355721058181162</v>
+        <v>-0.3738725857433511</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2002</v>
       </c>
       <c r="C16">
-        <v>0.2684059530231098</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D16">
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>1.04679887676995</v>
+        <v>1.021287096146906</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.1057637798973721</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>0.784627574469976</v>
+        <v>0.5726247744375135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.132083408248952</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>0.4769295963377385</v>
+        <v>0.6379602509701376</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2005</v>
       </c>
       <c r="C19">
-        <v>1.17068886841063</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D19">
         <v>2006</v>
       </c>
       <c r="E19">
-        <v>2.404550022669438</v>
+        <v>2.297544413125596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.634971782146511</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>2.672957813749899</v>
+        <v>2.825914290412324</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.706832025227879</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>2.654587275042641</v>
+        <v>2.510325059131513</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.31440288264395</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D22">
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>-2.056110774875552</v>
+        <v>-1.563640406432543</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-4.769514953327725</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>2.871822543797919</v>
+        <v>1.685921024959058</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3.567253050445052</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D24">
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>3.221819915514623</v>
+        <v>3.595026567604331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.197395229487587</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>1.969805073970021</v>
+        <v>2.123512403013161</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.06768917260982</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>0.9484267606459706</v>
+        <v>1.023960954496861</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.5174169974710985</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27">
-        <v>1.395491826955464</v>
+        <v>1.414810393331356</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.43635862321394</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28">
-        <v>0.2273015603982964</v>
+        <v>0.3626330124320232</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2015</v>
       </c>
       <c r="C29">
-        <v>1.4596601345918</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.30050158278785</v>
+        <v>1.339091979913909</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.690852638707807</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D30">
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>0.8218326064489911</v>
+        <v>1.006355688239569</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.606219273451615</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31">
-        <v>3.28927959958607</v>
+        <v>3.257368055312471</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.388653704388298</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>-0.6316633430149099</v>
+        <v>-0.3299132127116078</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.5493780357806122</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.2550845388511691</v>
+        <v>0.2691274977562275</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-3.301638448549793</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>32.56775170516122</v>
+        <v>23.52713615747899</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>3.106788550518735</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.034924975572587</v>
+        <v>6.182015844361843</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2022</v>
       </c>
       <c r="C36">
-        <v>2.033880321056336</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D36">
         <v>2023</v>
       </c>
       <c r="E36">
-        <v>1.535194717489086</v>
+        <v>1.559766133975371</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>-0.1503791852542902</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D37">
         <v>2024</v>
       </c>
       <c r="E37">
-        <v>-0.4505571821777465</v>
+        <v>-0.3513378667146627</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.1287369783011472</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>0.3232392893758762</v>
+        <v>0.256124515548195</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>0.2298740481777584</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D39">
         <v>2026</v>
       </c>
       <c r="E39">
-        <v>-0.05255865067609333</v>
+        <v>-0.02867520550564606</v>
       </c>
     </row>
   </sheetData>
